--- a/data/pca/factorExposure/factorExposure_2015-05-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-05-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +720,97 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01969405195441157</v>
+        <v>0.01066581388527835</v>
       </c>
       <c r="C2">
-        <v>-0.01908581893668239</v>
+        <v>0.05192354246417519</v>
       </c>
       <c r="D2">
-        <v>0.1057515052963501</v>
+        <v>-0.1280298200060417</v>
       </c>
       <c r="E2">
-        <v>-0.01280267889316616</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.02484126497980298</v>
+      </c>
+      <c r="F2">
+        <v>0.03055296316942625</v>
+      </c>
+      <c r="G2">
+        <v>0.113561508515826</v>
+      </c>
+      <c r="H2">
+        <v>0.07839104522102755</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.0005115856218742101</v>
+        <v>0.0002026686699992057</v>
       </c>
       <c r="C3">
-        <v>-5.476010521569482e-05</v>
+        <v>-1.053305750957572e-05</v>
       </c>
       <c r="D3">
-        <v>-0.001590959031998992</v>
+        <v>-0.0005475954118177324</v>
       </c>
       <c r="E3">
-        <v>0.001797106918566075</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.003066470945661325</v>
+      </c>
+      <c r="F3">
+        <v>-0.002658703975757755</v>
+      </c>
+      <c r="G3">
+        <v>0.003609482965149839</v>
+      </c>
+      <c r="H3">
+        <v>-0.008703469839292054</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04513692549606892</v>
+        <v>0.01966426358070446</v>
       </c>
       <c r="C4">
-        <v>-0.07197434057250635</v>
+        <v>0.1043765946421579</v>
       </c>
       <c r="D4">
-        <v>0.1265573350677647</v>
+        <v>-0.1288346381135608</v>
       </c>
       <c r="E4">
-        <v>-0.08587466159411762</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.009449329301235487</v>
+      </c>
+      <c r="F4">
+        <v>0.0893266839890471</v>
+      </c>
+      <c r="G4">
+        <v>0.006266713273817094</v>
+      </c>
+      <c r="H4">
+        <v>0.04203423263328278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +824,305 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02155218148535408</v>
+        <v>0.02730230553485581</v>
       </c>
       <c r="C6">
-        <v>-0.0125950345656179</v>
+        <v>0.03427434171859076</v>
       </c>
       <c r="D6">
-        <v>0.1374299298446194</v>
+        <v>-0.1206004983923518</v>
       </c>
       <c r="E6">
-        <v>-0.03930677939661548</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.06057848989696579</v>
+      </c>
+      <c r="F6">
+        <v>0.04750628254834025</v>
+      </c>
+      <c r="G6">
+        <v>0.0001955470619863879</v>
+      </c>
+      <c r="H6">
+        <v>0.0467915521731864</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.00252904812796212</v>
+        <v>0.008923283903872582</v>
       </c>
       <c r="C7">
-        <v>-0.02404331082234042</v>
+        <v>0.03715147596073989</v>
       </c>
       <c r="D7">
-        <v>0.1105919465516951</v>
+        <v>-0.09693924567160049</v>
       </c>
       <c r="E7">
-        <v>-0.005218318481672559</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.05424654160503029</v>
+      </c>
+      <c r="F7">
+        <v>0.01158339053757815</v>
+      </c>
+      <c r="G7">
+        <v>-0.009542014831521277</v>
+      </c>
+      <c r="H7">
+        <v>0.08014356115607357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.004667493630892782</v>
+        <v>-0.007947788102790088</v>
       </c>
       <c r="C8">
-        <v>-0.02612802681710866</v>
+        <v>0.03454207940413462</v>
       </c>
       <c r="D8">
-        <v>0.07858189418931442</v>
+        <v>-0.07416259208968902</v>
       </c>
       <c r="E8">
-        <v>-0.02309591426541054</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.03976882677133447</v>
+      </c>
+      <c r="F8">
+        <v>0.04828756275647181</v>
+      </c>
+      <c r="G8">
+        <v>0.06133741344672481</v>
+      </c>
+      <c r="H8">
+        <v>0.01065922294011887</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03640547138857245</v>
+        <v>0.01379630493742378</v>
       </c>
       <c r="C9">
-        <v>-0.06146742245282638</v>
+        <v>0.08688837220733553</v>
       </c>
       <c r="D9">
-        <v>0.1296851385543996</v>
+        <v>-0.1135524415622779</v>
       </c>
       <c r="E9">
-        <v>-0.06976444565562981</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.0119472115473185</v>
+      </c>
+      <c r="F9">
+        <v>0.06017862584033051</v>
+      </c>
+      <c r="G9">
+        <v>-0.01353155334196898</v>
+      </c>
+      <c r="H9">
+        <v>0.05655343627289939</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1712286725405904</v>
+        <v>0.2401127115810632</v>
       </c>
       <c r="C10">
-        <v>0.1703027255552062</v>
+        <v>-0.09526746515192246</v>
       </c>
       <c r="D10">
-        <v>0.002678657749779436</v>
+        <v>0.002776457840209656</v>
       </c>
       <c r="E10">
-        <v>-0.04318311265299125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01089992432639234</v>
+      </c>
+      <c r="F10">
+        <v>0.04428735425685584</v>
+      </c>
+      <c r="G10">
+        <v>-0.0001291144257830554</v>
+      </c>
+      <c r="H10">
+        <v>-0.04338898246362895</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01880546731947568</v>
+        <v>0.0105051815303212</v>
       </c>
       <c r="C11">
-        <v>-0.04108832632315487</v>
+        <v>0.05512424326781065</v>
       </c>
       <c r="D11">
-        <v>0.04611234130522932</v>
+        <v>-0.04353094353586086</v>
       </c>
       <c r="E11">
-        <v>0.01454928250727347</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.02004695446516266</v>
+      </c>
+      <c r="F11">
+        <v>-0.01160860650813515</v>
+      </c>
+      <c r="G11">
+        <v>-0.006164765673611682</v>
+      </c>
+      <c r="H11">
+        <v>0.04408362829297275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01976251047308185</v>
+        <v>0.01075074149850507</v>
       </c>
       <c r="C12">
-        <v>-0.04023753177010463</v>
+        <v>0.04927825346521193</v>
       </c>
       <c r="D12">
-        <v>0.05957502886158086</v>
+        <v>-0.04720734165357444</v>
       </c>
       <c r="E12">
-        <v>0.003280821656976517</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.01539192655029955</v>
+      </c>
+      <c r="F12">
+        <v>-0.01465357621229155</v>
+      </c>
+      <c r="G12">
+        <v>-0.02541357648963867</v>
+      </c>
+      <c r="H12">
+        <v>0.06456221832647054</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.001556978655024678</v>
+        <v>-0.002775983425785659</v>
       </c>
       <c r="C13">
-        <v>-0.02210109038590738</v>
+        <v>0.04644504255041942</v>
       </c>
       <c r="D13">
-        <v>0.1446309925806751</v>
+        <v>-0.1524238624977431</v>
       </c>
       <c r="E13">
-        <v>-0.03987063554136737</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.04166028487751025</v>
+      </c>
+      <c r="F13">
+        <v>0.03665937392678648</v>
+      </c>
+      <c r="G13">
+        <v>0.01194948036249761</v>
+      </c>
+      <c r="H13">
+        <v>0.07523032639169332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.005387955498031188</v>
+        <v>0.001574618070115533</v>
       </c>
       <c r="C14">
-        <v>-0.01640397192993718</v>
+        <v>0.030543946858023</v>
       </c>
       <c r="D14">
-        <v>0.095163838546621</v>
+        <v>-0.1021120872470141</v>
       </c>
       <c r="E14">
-        <v>-0.01356728982165592</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.05070128255873149</v>
+      </c>
+      <c r="F14">
+        <v>0.03832041312701865</v>
+      </c>
+      <c r="G14">
+        <v>0.01201131159226155</v>
+      </c>
+      <c r="H14">
+        <v>0.1287487565990622</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002760292200606981</v>
+        <v>-0.00138803291496032</v>
       </c>
       <c r="C15">
-        <v>-0.01065601967127862</v>
+        <v>0.02502169995111252</v>
       </c>
       <c r="D15">
-        <v>0.03146898397886962</v>
+        <v>-0.05941331792245851</v>
       </c>
       <c r="E15">
-        <v>0.0031746314084139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.01107025501468233</v>
+      </c>
+      <c r="F15">
+        <v>0.007141184957513625</v>
+      </c>
+      <c r="G15">
+        <v>0.01777081351194237</v>
+      </c>
+      <c r="H15">
+        <v>0.03358589747696293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01854622927643624</v>
+        <v>0.01058923537144318</v>
       </c>
       <c r="C16">
-        <v>-0.036489947257264</v>
+        <v>0.04839133682365765</v>
       </c>
       <c r="D16">
-        <v>0.0520389583772282</v>
+        <v>-0.04338176266198437</v>
       </c>
       <c r="E16">
-        <v>0.005799165476717972</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.02161328937582686</v>
+      </c>
+      <c r="F16">
+        <v>-0.007371884513248748</v>
+      </c>
+      <c r="G16">
+        <v>-0.01702714498432676</v>
+      </c>
+      <c r="H16">
+        <v>0.04536374429411227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1136,19 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1162,227 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.004324433847196114</v>
+        <v>0.0005100176014008245</v>
       </c>
       <c r="C19">
-        <v>-0.01781374198949621</v>
+        <v>0.0172940421065473</v>
       </c>
       <c r="D19">
-        <v>0.1044663678071468</v>
+        <v>-0.06470662187843307</v>
       </c>
       <c r="E19">
-        <v>-0.04678658070602809</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.009594240487979194</v>
+      </c>
+      <c r="F19">
+        <v>0.01561407919962876</v>
+      </c>
+      <c r="G19">
+        <v>0.01057718194712772</v>
+      </c>
+      <c r="H19">
+        <v>0.05956345829709984</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.002126485879945435</v>
+        <v>0.005318173587410112</v>
       </c>
       <c r="C20">
-        <v>-0.02459674399063185</v>
+        <v>0.04018210804145035</v>
       </c>
       <c r="D20">
-        <v>0.08496768575055612</v>
+        <v>-0.09231731044248229</v>
       </c>
       <c r="E20">
-        <v>-0.03410222238389453</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02412558297303193</v>
+      </c>
+      <c r="F20">
+        <v>0.02974097545385468</v>
+      </c>
+      <c r="G20">
+        <v>-0.006034640285709954</v>
+      </c>
+      <c r="H20">
+        <v>0.05406341593762053</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.00538913188998458</v>
+        <v>0.005530179419368863</v>
       </c>
       <c r="C21">
-        <v>-0.02829636064162842</v>
+        <v>0.04500429553604376</v>
       </c>
       <c r="D21">
-        <v>0.1610519599707879</v>
+        <v>-0.1313706234656494</v>
       </c>
       <c r="E21">
-        <v>-0.08065401465021274</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03124381178122215</v>
+      </c>
+      <c r="F21">
+        <v>0.09938845867966165</v>
+      </c>
+      <c r="G21">
+        <v>0.01851902862491532</v>
+      </c>
+      <c r="H21">
+        <v>0.1952648514006563</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.00260586479128805</v>
+        <v>-0.01329670076061796</v>
       </c>
       <c r="C22">
-        <v>-0.06334672139491734</v>
+        <v>0.0875983873456251</v>
       </c>
       <c r="D22">
-        <v>0.2495678142009926</v>
+        <v>-0.2555725030020056</v>
       </c>
       <c r="E22">
-        <v>0.01625891650476954</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.06336546214944214</v>
+      </c>
+      <c r="F22">
+        <v>0.004490335127764888</v>
+      </c>
+      <c r="G22">
+        <v>0.3879437914444823</v>
+      </c>
+      <c r="H22">
+        <v>-0.4061313871671641</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.002339208355975498</v>
+        <v>-0.01005019737872802</v>
       </c>
       <c r="C23">
-        <v>-0.06385322413663325</v>
+        <v>0.08916556287427679</v>
       </c>
       <c r="D23">
-        <v>0.2490598104684207</v>
+        <v>-0.2582678235947625</v>
       </c>
       <c r="E23">
-        <v>0.01614395879667365</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.05863340254358951</v>
+      </c>
+      <c r="F23">
+        <v>0.007788965915911525</v>
+      </c>
+      <c r="G23">
+        <v>0.3758798275046755</v>
+      </c>
+      <c r="H23">
+        <v>-0.3906145229721353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02376581853231662</v>
+        <v>0.009975828626832476</v>
       </c>
       <c r="C24">
-        <v>-0.05574410462972937</v>
+        <v>0.06555804054029983</v>
       </c>
       <c r="D24">
-        <v>0.06380434680882809</v>
+        <v>-0.04961234762285237</v>
       </c>
       <c r="E24">
-        <v>0.0009514216201599779</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.02932017435120623</v>
+      </c>
+      <c r="F24">
+        <v>-0.002741472934612322</v>
+      </c>
+      <c r="G24">
+        <v>-0.008037722446988754</v>
+      </c>
+      <c r="H24">
+        <v>0.07042909320975434</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02532863123158178</v>
+        <v>0.01451492308872807</v>
       </c>
       <c r="C25">
-        <v>-0.04762904093902525</v>
+        <v>0.06019223757033002</v>
       </c>
       <c r="D25">
-        <v>0.06049981277339733</v>
+        <v>-0.04993110501165978</v>
       </c>
       <c r="E25">
-        <v>-0.003514458152835179</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.01451605715404553</v>
+      </c>
+      <c r="F25">
+        <v>-0.005154682994427098</v>
+      </c>
+      <c r="G25">
+        <v>-0.0126182822393715</v>
+      </c>
+      <c r="H25">
+        <v>0.03748839603601781</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006933998353382792</v>
+        <v>0.01479411175429972</v>
       </c>
       <c r="C26">
-        <v>-0.01578166958657295</v>
+        <v>0.02642019359592874</v>
       </c>
       <c r="D26">
-        <v>0.08203931838170471</v>
+        <v>-0.06714450694378891</v>
       </c>
       <c r="E26">
-        <v>-0.02118401733856551</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.04219484661372047</v>
+      </c>
+      <c r="F26">
+        <v>0.04451549643389767</v>
+      </c>
+      <c r="G26">
+        <v>-0.0007016018309737825</v>
+      </c>
+      <c r="H26">
+        <v>0.0973151217985718</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1396,253 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2561289584520084</v>
+        <v>0.3193526342982898</v>
       </c>
       <c r="C28">
-        <v>0.1991878299154376</v>
+        <v>-0.09323870651162568</v>
       </c>
       <c r="D28">
-        <v>0.01813770841009039</v>
+        <v>0.01392385726288208</v>
       </c>
       <c r="E28">
-        <v>-0.05954167098396351</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.05065091664344507</v>
+      </c>
+      <c r="F28">
+        <v>0.04550582115433671</v>
+      </c>
+      <c r="G28">
+        <v>0.04048616136110532</v>
+      </c>
+      <c r="H28">
+        <v>-0.008195257373074206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.001533141301326173</v>
+        <v>0.0006703979615326125</v>
       </c>
       <c r="C29">
-        <v>-0.02067041642044118</v>
+        <v>0.03598052764578041</v>
       </c>
       <c r="D29">
-        <v>0.09483785253509944</v>
+        <v>-0.104240912561735</v>
       </c>
       <c r="E29">
-        <v>-0.01839004388936964</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.05773286623116139</v>
+      </c>
+      <c r="F29">
+        <v>0.04120359369116831</v>
+      </c>
+      <c r="G29">
+        <v>-0.003349358070641348</v>
+      </c>
+      <c r="H29">
+        <v>0.1320332088128532</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02228533504338488</v>
+        <v>0.01322283183860659</v>
       </c>
       <c r="C30">
-        <v>-0.05905167276884478</v>
+        <v>0.08698679132291198</v>
       </c>
       <c r="D30">
-        <v>0.1625281878101149</v>
+        <v>-0.1483443608597396</v>
       </c>
       <c r="E30">
-        <v>-0.03001618009319245</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05390451327109332</v>
+      </c>
+      <c r="F30">
+        <v>0.03155707496348109</v>
+      </c>
+      <c r="G30">
+        <v>0.03055612594493505</v>
+      </c>
+      <c r="H30">
+        <v>0.04578342817522845</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03761641545731495</v>
+        <v>0.0103523588191236</v>
       </c>
       <c r="C31">
-        <v>-0.08496693941066819</v>
+        <v>0.09284535630718539</v>
       </c>
       <c r="D31">
-        <v>0.0673705700041717</v>
+        <v>-0.03968389227110367</v>
       </c>
       <c r="E31">
-        <v>-0.01398652020196811</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.01891633505256605</v>
+      </c>
+      <c r="F31">
+        <v>0.01531582294372951</v>
+      </c>
+      <c r="G31">
+        <v>-1.399115712541234e-05</v>
+      </c>
+      <c r="H31">
+        <v>0.04652027676081068</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01766505728048091</v>
+        <v>0.01037314222371344</v>
       </c>
       <c r="C32">
-        <v>-0.03211682872183731</v>
+        <v>0.04842159250987094</v>
       </c>
       <c r="D32">
-        <v>0.09710242567249193</v>
+        <v>-0.1087633847497821</v>
       </c>
       <c r="E32">
-        <v>-0.06881268935764448</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.003205607032209606</v>
+      </c>
+      <c r="F32">
+        <v>0.05175722070230183</v>
+      </c>
+      <c r="G32">
+        <v>0.006928915053944623</v>
+      </c>
+      <c r="H32">
+        <v>0.05361179049951264</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.008797956671722364</v>
+        <v>0.00705828984647714</v>
       </c>
       <c r="C33">
-        <v>-0.04061434256111561</v>
+        <v>0.05834457569737633</v>
       </c>
       <c r="D33">
-        <v>0.1375964248574044</v>
+        <v>-0.121625265797896</v>
       </c>
       <c r="E33">
-        <v>-0.04408555885971884</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02794324385329463</v>
+      </c>
+      <c r="F33">
+        <v>0.02946475042785224</v>
+      </c>
+      <c r="G33">
+        <v>3.492816209726374e-05</v>
+      </c>
+      <c r="H33">
+        <v>0.06371207423581612</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02142161679511519</v>
+        <v>0.007796072271564061</v>
       </c>
       <c r="C34">
-        <v>-0.05843221550973958</v>
+        <v>0.0617974285894134</v>
       </c>
       <c r="D34">
-        <v>0.04865466273599071</v>
+        <v>-0.0287272503708367</v>
       </c>
       <c r="E34">
-        <v>0.04371975554920832</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02926653815138832</v>
+      </c>
+      <c r="F34">
+        <v>-0.03681736365307091</v>
+      </c>
+      <c r="G34">
+        <v>-0.01109713661280656</v>
+      </c>
+      <c r="H34">
+        <v>0.05773170736942275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.002408366965786321</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.01034778202496053</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.03375644211575383</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.003906852839864416</v>
+      </c>
+      <c r="F35">
+        <v>0.01886850058331483</v>
+      </c>
+      <c r="G35">
+        <v>-0.0007957421980235524</v>
+      </c>
+      <c r="H35">
+        <v>0.04665013364938141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.006394857349923645</v>
+        <v>0.0119729560479674</v>
       </c>
       <c r="C36">
-        <v>-0.00635481815298057</v>
+        <v>0.0206349238574873</v>
       </c>
       <c r="D36">
-        <v>0.08511840980732548</v>
+        <v>-0.07498546403081092</v>
       </c>
       <c r="E36">
-        <v>-0.04594719716330975</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.02738610437675108</v>
+      </c>
+      <c r="F36">
+        <v>0.04993934141234921</v>
+      </c>
+      <c r="G36">
+        <v>0.002794246174211098</v>
+      </c>
+      <c r="H36">
+        <v>0.06501754205617956</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1656,123 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.004867615142315345</v>
+        <v>0.01404945905231423</v>
       </c>
       <c r="C38">
-        <v>-0.006139963400151336</v>
+        <v>0.01863289389296162</v>
       </c>
       <c r="D38">
-        <v>0.0894749796238809</v>
+        <v>-0.08463486408112413</v>
       </c>
       <c r="E38">
-        <v>-0.01447274103859366</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.00370962191082467</v>
+      </c>
+      <c r="F38">
+        <v>0.00181102180340824</v>
+      </c>
+      <c r="G38">
+        <v>0.02357788775395521</v>
+      </c>
+      <c r="H38">
+        <v>0.06413156158659393</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01584123598407863</v>
+        <v>0.002854548128873696</v>
       </c>
       <c r="C39">
-        <v>-0.05659485787123644</v>
+        <v>0.07574580531335358</v>
       </c>
       <c r="D39">
-        <v>0.1124680152060797</v>
+        <v>-0.09564334428269715</v>
       </c>
       <c r="E39">
-        <v>0.01028583637017477</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.05406796699514795</v>
+      </c>
+      <c r="F39">
+        <v>-0.002210938387704297</v>
+      </c>
+      <c r="G39">
+        <v>-0.008931558093572083</v>
+      </c>
+      <c r="H39">
+        <v>0.09630531330138135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01080937842548931</v>
+        <v>0.01250323846068048</v>
       </c>
       <c r="C40">
-        <v>-0.01735280979041777</v>
+        <v>0.03129352316546707</v>
       </c>
       <c r="D40">
-        <v>0.1248324565267779</v>
+        <v>-0.1034398125159037</v>
       </c>
       <c r="E40">
-        <v>0.01380560262480358</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.05170529708185916</v>
+      </c>
+      <c r="F40">
+        <v>-0.02095341350378154</v>
+      </c>
+      <c r="G40">
+        <v>0.04385372179916919</v>
+      </c>
+      <c r="H40">
+        <v>0.09029388730934207</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.009755563005595878</v>
+        <v>0.01632776825090596</v>
       </c>
       <c r="C41">
-        <v>-0.00345419765121892</v>
+        <v>0.01707683692159925</v>
       </c>
       <c r="D41">
-        <v>0.04629785078900775</v>
+        <v>-0.04729833173224827</v>
       </c>
       <c r="E41">
-        <v>-0.03371446778228084</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.007586610526653647</v>
+      </c>
+      <c r="F41">
+        <v>0.02479288206080059</v>
+      </c>
+      <c r="G41">
+        <v>0.004663666520138917</v>
+      </c>
+      <c r="H41">
+        <v>0.0452637673697917</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1786,71 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.002912557569750594</v>
+        <v>0.009642412319323496</v>
       </c>
       <c r="C43">
-        <v>-0.004366386060362099</v>
+        <v>0.01459443205927622</v>
       </c>
       <c r="D43">
-        <v>0.05514175956134795</v>
+        <v>-0.05174143546286083</v>
       </c>
       <c r="E43">
-        <v>-0.02293057826106073</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.009111462758685991</v>
+      </c>
+      <c r="F43">
+        <v>0.02027820023579022</v>
+      </c>
+      <c r="G43">
+        <v>0.007824743587040167</v>
+      </c>
+      <c r="H43">
+        <v>0.05615212161040564</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01612917967983991</v>
+        <v>0.01195294787045054</v>
       </c>
       <c r="C44">
-        <v>-0.0227440542685147</v>
+        <v>0.04655697598381147</v>
       </c>
       <c r="D44">
-        <v>0.1058905987665384</v>
+        <v>-0.1094780688558694</v>
       </c>
       <c r="E44">
-        <v>-0.05129696592020595</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.03898379180224133</v>
+      </c>
+      <c r="F44">
+        <v>0.03735638654780877</v>
+      </c>
+      <c r="G44">
+        <v>0.02777492291844842</v>
+      </c>
+      <c r="H44">
+        <v>0.05286194898379792</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1864,97 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.005646381234278592</v>
+        <v>0.0005707294051656117</v>
       </c>
       <c r="C46">
-        <v>-0.02884752859615641</v>
+        <v>0.04073426301712602</v>
       </c>
       <c r="D46">
-        <v>0.08838031554057413</v>
+        <v>-0.07465795382008857</v>
       </c>
       <c r="E46">
-        <v>-0.0200148639463578</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.04311085899292459</v>
+      </c>
+      <c r="F46">
+        <v>0.03538828800297381</v>
+      </c>
+      <c r="G46">
+        <v>0.0121710828838469</v>
+      </c>
+      <c r="H46">
+        <v>0.1333458237297438</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.08066415431202584</v>
+        <v>0.03506998515380672</v>
       </c>
       <c r="C47">
-        <v>-0.1075058251191808</v>
+        <v>0.1261644895455147</v>
       </c>
       <c r="D47">
-        <v>0.05732464917112213</v>
+        <v>-0.02352324084211882</v>
       </c>
       <c r="E47">
-        <v>-0.03214295947275729</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.007666571744345213</v>
+      </c>
+      <c r="F47">
+        <v>-0.003091437029341546</v>
+      </c>
+      <c r="G47">
+        <v>-0.04219819726061682</v>
+      </c>
+      <c r="H47">
+        <v>0.05257745151104126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.007574423742756613</v>
+        <v>0.01362541499001717</v>
       </c>
       <c r="C48">
-        <v>-0.01555398238031429</v>
+        <v>0.03058737776728225</v>
       </c>
       <c r="D48">
-        <v>0.08855407862117218</v>
+        <v>-0.08065524540487501</v>
       </c>
       <c r="E48">
-        <v>-0.05922363735633195</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.02013121265046172</v>
+      </c>
+      <c r="F48">
+        <v>0.06028891111593061</v>
+      </c>
+      <c r="G48">
+        <v>0.007907669512413777</v>
+      </c>
+      <c r="H48">
+        <v>0.1040936017113659</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1968,71 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03547024235379732</v>
+        <v>0.01512553629077116</v>
       </c>
       <c r="C50">
-        <v>-0.05979800261237929</v>
+        <v>0.07526846661356</v>
       </c>
       <c r="D50">
-        <v>0.06129058151295898</v>
+        <v>-0.04724122130491295</v>
       </c>
       <c r="E50">
-        <v>-0.01054186753894312</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01147224813560322</v>
+      </c>
+      <c r="F50">
+        <v>0.01050354199460003</v>
+      </c>
+      <c r="G50">
+        <v>0.01356530401599439</v>
+      </c>
+      <c r="H50">
+        <v>0.03711695825980063</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.002025700899670239</v>
+        <v>-0.0006027254954845359</v>
       </c>
       <c r="C51">
-        <v>-0.004331045655931862</v>
+        <v>0.01691401110259654</v>
       </c>
       <c r="D51">
-        <v>0.05597504025462112</v>
+        <v>-0.05775135817353589</v>
       </c>
       <c r="E51">
-        <v>-0.001905870780751111</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.03899581302785562</v>
+      </c>
+      <c r="F51">
+        <v>0.0398543788317097</v>
+      </c>
+      <c r="G51">
+        <v>0.01918344452793436</v>
+      </c>
+      <c r="H51">
+        <v>0.04920416748107832</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2046,123 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1082964315461258</v>
+        <v>0.05551003729323187</v>
       </c>
       <c r="C53">
-        <v>-0.1247385134990754</v>
+        <v>0.1564998218896783</v>
       </c>
       <c r="D53">
-        <v>0.01004176251642431</v>
+        <v>0.02023495705177578</v>
       </c>
       <c r="E53">
-        <v>-0.06103026579952212</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02917606734179969</v>
+      </c>
+      <c r="F53">
+        <v>0.04982309618136261</v>
+      </c>
+      <c r="G53">
+        <v>0.002159666530237094</v>
+      </c>
+      <c r="H53">
+        <v>0.007006952316726861</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.0114850485046735</v>
+        <v>0.01052772705519384</v>
       </c>
       <c r="C54">
-        <v>-0.02075825670834817</v>
+        <v>0.03692765804744179</v>
       </c>
       <c r="D54">
-        <v>0.09013811939633325</v>
+        <v>-0.0763226004485017</v>
       </c>
       <c r="E54">
-        <v>-0.007763909356080247</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01526479839019775</v>
+      </c>
+      <c r="F54">
+        <v>0.00406267088560638</v>
+      </c>
+      <c r="G54">
+        <v>0.02416686509802256</v>
+      </c>
+      <c r="H54">
+        <v>0.08047108854743397</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09534176284767144</v>
+        <v>0.04238860744793459</v>
       </c>
       <c r="C55">
-        <v>-0.1058529468766624</v>
+        <v>0.1306390960758336</v>
       </c>
       <c r="D55">
-        <v>0.006191353176843548</v>
+        <v>0.0309849934850453</v>
       </c>
       <c r="E55">
-        <v>-0.01202384866084748</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.00395031265249295</v>
+      </c>
+      <c r="F55">
+        <v>0.01429093270724729</v>
+      </c>
+      <c r="G55">
+        <v>0.005277155265402408</v>
+      </c>
+      <c r="H55">
+        <v>0.01607140271760423</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1328275657748996</v>
+        <v>0.05715269255562725</v>
       </c>
       <c r="C56">
-        <v>-0.1426597271743763</v>
+        <v>0.1883580407328346</v>
       </c>
       <c r="D56">
-        <v>0.001618167134656667</v>
+        <v>0.03185642448493761</v>
       </c>
       <c r="E56">
-        <v>-0.01285929115597649</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03056565887407053</v>
+      </c>
+      <c r="F56">
+        <v>0.01664921847361957</v>
+      </c>
+      <c r="G56">
+        <v>0.05513978849650375</v>
+      </c>
+      <c r="H56">
+        <v>0.01076159363310039</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2176,123 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.009609323212864722</v>
+        <v>0.006985484886831529</v>
       </c>
       <c r="C58">
-        <v>-0.01252563109365348</v>
+        <v>0.05320741376029098</v>
       </c>
       <c r="D58">
-        <v>0.2154410753666249</v>
+        <v>-0.2711851300455911</v>
       </c>
       <c r="E58">
-        <v>-0.08322602950787218</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.01595072556657578</v>
+      </c>
+      <c r="F58">
+        <v>0.1057777107491602</v>
+      </c>
+      <c r="G58">
+        <v>0.1328215173052462</v>
+      </c>
+      <c r="H58">
+        <v>-0.09103531618292908</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1797267489919785</v>
+        <v>0.2524065449948069</v>
       </c>
       <c r="C59">
-        <v>0.1479835452175582</v>
+        <v>-0.06436511799395292</v>
       </c>
       <c r="D59">
-        <v>0.0450116636751484</v>
+        <v>-0.05607965553250906</v>
       </c>
       <c r="E59">
-        <v>-0.0370792031399352</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.02047264749017733</v>
+      </c>
+      <c r="F59">
+        <v>0.0240944445928951</v>
+      </c>
+      <c r="G59">
+        <v>0.01220689268743776</v>
+      </c>
+      <c r="H59">
+        <v>-0.004859961769968655</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1850245082384714</v>
+        <v>0.1501836746635264</v>
       </c>
       <c r="C60">
-        <v>-0.1010096462107399</v>
+        <v>0.1713309595362476</v>
       </c>
       <c r="D60">
-        <v>0.2076451742515771</v>
+        <v>-0.08689323132450115</v>
       </c>
       <c r="E60">
-        <v>0.1653796115754105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.1679909715734557</v>
+      </c>
+      <c r="F60">
+        <v>-0.2242123912886625</v>
+      </c>
+      <c r="G60">
+        <v>-0.2277884592008668</v>
+      </c>
+      <c r="H60">
+        <v>-0.2207760548657091</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02521306607313221</v>
+        <v>0.01129001706339045</v>
       </c>
       <c r="C61">
-        <v>-0.05323786875572747</v>
+        <v>0.07342656215215959</v>
       </c>
       <c r="D61">
-        <v>0.09899634469789409</v>
+        <v>-0.0786253764648817</v>
       </c>
       <c r="E61">
-        <v>0.002467908631832169</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.03733465777037814</v>
+      </c>
+      <c r="F61">
+        <v>-0.01214305350867914</v>
+      </c>
+      <c r="G61">
+        <v>-0.02848986769208344</v>
+      </c>
+      <c r="H61">
+        <v>0.08805193715164385</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2306,201 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.006704395483743892</v>
+        <v>0.008310112774263551</v>
       </c>
       <c r="C63">
-        <v>-0.02541127795495573</v>
+        <v>0.03580825024297502</v>
       </c>
       <c r="D63">
-        <v>0.09426268941296241</v>
+        <v>-0.06769298257857564</v>
       </c>
       <c r="E63">
-        <v>-0.01723629704259231</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.05688900064248491</v>
+      </c>
+      <c r="F63">
+        <v>0.02837278920156944</v>
+      </c>
+      <c r="G63">
+        <v>0.007234470648549014</v>
+      </c>
+      <c r="H63">
+        <v>0.06546024414102607</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05639900079318792</v>
+        <v>0.0173066368018774</v>
       </c>
       <c r="C64">
-        <v>-0.08325196692431652</v>
+        <v>0.1068682177947131</v>
       </c>
       <c r="D64">
-        <v>0.03328524787678813</v>
+        <v>-0.01903848296084704</v>
       </c>
       <c r="E64">
-        <v>-0.01717648234956533</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.0269611063348421</v>
+      </c>
+      <c r="F64">
+        <v>0.02129358353421167</v>
+      </c>
+      <c r="G64">
+        <v>-0.04606998377493626</v>
+      </c>
+      <c r="H64">
+        <v>0.0897838905975394</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02476463204889179</v>
+        <v>0.02152438465410073</v>
       </c>
       <c r="C65">
-        <v>-0.01540330962596734</v>
+        <v>0.04284949383570682</v>
       </c>
       <c r="D65">
-        <v>0.1158117742640392</v>
+        <v>-0.114663750263179</v>
       </c>
       <c r="E65">
-        <v>-0.008065003724189883</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.04392998939672926</v>
+      </c>
+      <c r="F65">
+        <v>-0.005023547887633186</v>
+      </c>
+      <c r="G65">
+        <v>-0.02525005103978863</v>
+      </c>
+      <c r="H65">
+        <v>0.02529157407225264</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.01918775840909362</v>
+        <v>2.262195263809166e-06</v>
       </c>
       <c r="C66">
-        <v>-0.06460924514278317</v>
+        <v>0.09393552965735193</v>
       </c>
       <c r="D66">
-        <v>0.1194388605727166</v>
+        <v>-0.1212662732993031</v>
       </c>
       <c r="E66">
-        <v>0.01319723009007838</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.04236075033480434</v>
+      </c>
+      <c r="F66">
+        <v>-0.008550519984930486</v>
+      </c>
+      <c r="G66">
+        <v>0.01260506837051016</v>
+      </c>
+      <c r="H66">
+        <v>0.05944496756933496</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.0239410420832866</v>
+        <v>0.02404942560738219</v>
       </c>
       <c r="C67">
-        <v>-0.01911440335797206</v>
+        <v>0.03095296511059656</v>
       </c>
       <c r="D67">
-        <v>0.04611519578149415</v>
+        <v>-0.03883731114472017</v>
       </c>
       <c r="E67">
-        <v>0.01255982733403511</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.00967427025893579</v>
+      </c>
+      <c r="F67">
+        <v>-0.02643265599588153</v>
+      </c>
+      <c r="G67">
+        <v>0.007465232282646467</v>
+      </c>
+      <c r="H67">
+        <v>0.06628604685815513</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2037271209188488</v>
+        <v>0.2733540275265476</v>
       </c>
       <c r="C68">
-        <v>0.156916606173342</v>
+        <v>-0.06910597578951354</v>
       </c>
       <c r="D68">
-        <v>0.03027046205922266</v>
+        <v>-0.02374720597477821</v>
       </c>
       <c r="E68">
-        <v>-0.00698306841480345</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.005098168693927574</v>
+      </c>
+      <c r="F68">
+        <v>0.02474912663508903</v>
+      </c>
+      <c r="G68">
+        <v>0.06954235136316576</v>
+      </c>
+      <c r="H68">
+        <v>-0.04868714007036995</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05681991574321555</v>
+        <v>0.01958285549525069</v>
       </c>
       <c r="C69">
-        <v>-0.1150144811199629</v>
+        <v>0.1187011166619944</v>
       </c>
       <c r="D69">
-        <v>0.07878063498472614</v>
+        <v>-0.03209736990213364</v>
       </c>
       <c r="E69">
-        <v>-0.01873187603340622</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.008125973788928129</v>
+      </c>
+      <c r="F69">
+        <v>-0.006151307631546869</v>
+      </c>
+      <c r="G69">
+        <v>-0.02300494349329095</v>
+      </c>
+      <c r="H69">
+        <v>0.0420243543623806</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2514,669 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2133407662330009</v>
+        <v>0.2749845514260444</v>
       </c>
       <c r="C71">
-        <v>0.1803840906664274</v>
+        <v>-0.0822054829546149</v>
       </c>
       <c r="D71">
-        <v>0.01911389721557325</v>
+        <v>-0.01514214288287118</v>
       </c>
       <c r="E71">
-        <v>-0.01271239590985028</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.001393539590009198</v>
+      </c>
+      <c r="F71">
+        <v>0.01963714794517309</v>
+      </c>
+      <c r="G71">
+        <v>0.03290844596838393</v>
+      </c>
+      <c r="H71">
+        <v>0.02353284060672879</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1041947891409506</v>
+        <v>0.05636440347678803</v>
       </c>
       <c r="C72">
-        <v>-0.07563952586137106</v>
+        <v>0.1249321365952972</v>
       </c>
       <c r="D72">
-        <v>0.1105442704139028</v>
+        <v>-0.05736959691024077</v>
       </c>
       <c r="E72">
-        <v>0.04643955636054597</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.07087030765902209</v>
+      </c>
+      <c r="F72">
+        <v>-0.0279495493343508</v>
+      </c>
+      <c r="G72">
+        <v>-0.03734659434873106</v>
+      </c>
+      <c r="H72">
+        <v>0.05273087245882413</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1713791405059408</v>
+        <v>0.1420361641780885</v>
       </c>
       <c r="C73">
-        <v>-0.06479851654874717</v>
+        <v>0.1445490214647824</v>
       </c>
       <c r="D73">
-        <v>0.2785237775668361</v>
+        <v>-0.0982936506896656</v>
       </c>
       <c r="E73">
-        <v>0.2501338537032415</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.2952734065328125</v>
+      </c>
+      <c r="F73">
+        <v>-0.3168441387256282</v>
+      </c>
+      <c r="G73">
+        <v>-0.4108659413966812</v>
+      </c>
+      <c r="H73">
+        <v>-0.1565619891521313</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1071770269468006</v>
+        <v>0.05018483540722492</v>
       </c>
       <c r="C74">
-        <v>-0.1154954031069193</v>
+        <v>0.1460404378336137</v>
       </c>
       <c r="D74">
-        <v>-0.01725821786458734</v>
+        <v>0.04066476755085131</v>
       </c>
       <c r="E74">
-        <v>-0.03954498616705594</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01089481509181712</v>
+      </c>
+      <c r="F74">
+        <v>0.0372415258754911</v>
+      </c>
+      <c r="G74">
+        <v>-0.00762959514320409</v>
+      </c>
+      <c r="H74">
+        <v>-0.01078274027056711</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2338978881083113</v>
+        <v>0.1097004006148738</v>
       </c>
       <c r="C75">
-        <v>-0.1997219684986117</v>
+        <v>0.2685415151784604</v>
       </c>
       <c r="D75">
-        <v>-0.100856440961884</v>
+        <v>0.1362164382687127</v>
       </c>
       <c r="E75">
-        <v>0.02772969853941147</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.08878189700355693</v>
+      </c>
+      <c r="F75">
+        <v>-0.03128901956323991</v>
+      </c>
+      <c r="G75">
+        <v>0.09190051804854034</v>
+      </c>
+      <c r="H75">
+        <v>0.01878354944730782</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1391946005668014</v>
+        <v>0.06243909682821724</v>
       </c>
       <c r="C76">
-        <v>-0.1387038218598266</v>
+        <v>0.1821165284427746</v>
       </c>
       <c r="D76">
-        <v>0.0170315720148493</v>
+        <v>0.03587363614317321</v>
       </c>
       <c r="E76">
-        <v>-0.01322122321092082</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.0215533559675897</v>
+      </c>
+      <c r="F76">
+        <v>0.004261406842082608</v>
+      </c>
+      <c r="G76">
+        <v>0.03377785069322699</v>
+      </c>
+      <c r="H76">
+        <v>0.03593760504224267</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.02124294108278167</v>
+        <v>0.002110932822874205</v>
       </c>
       <c r="C77">
-        <v>-0.06693613046292606</v>
+        <v>0.1070870584966001</v>
       </c>
       <c r="D77">
-        <v>-0.004584805590970032</v>
+        <v>-0.3217354147196249</v>
       </c>
       <c r="E77">
-        <v>-0.2433127224035042</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.8374623262504577</v>
+      </c>
+      <c r="F77">
+        <v>-0.2293784442135775</v>
+      </c>
+      <c r="G77">
+        <v>-0.208883707093999</v>
+      </c>
+      <c r="H77">
+        <v>-0.1489345868406697</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.02590269673350635</v>
+        <v>0.01653352341214167</v>
       </c>
       <c r="C78">
-        <v>-0.06876262819796897</v>
+        <v>0.08990982503956801</v>
       </c>
       <c r="D78">
-        <v>0.1510949881391339</v>
+        <v>-0.1177637164981929</v>
       </c>
       <c r="E78">
-        <v>-0.047200445556946</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.06812813476406933</v>
+      </c>
+      <c r="F78">
+        <v>0.04304044835572234</v>
+      </c>
+      <c r="G78">
+        <v>0.031339473039634</v>
+      </c>
+      <c r="H78">
+        <v>0.02428259032722128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.09556108761081897</v>
+        <v>0.03515268905179082</v>
       </c>
       <c r="C79">
-        <v>-0.1752984704702357</v>
+        <v>0.192351567986638</v>
       </c>
       <c r="D79">
-        <v>-0.112348445210777</v>
+        <v>0.07320370368898235</v>
       </c>
       <c r="E79">
-        <v>-0.7862140511703052</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.05334096294451653</v>
+      </c>
+      <c r="F79">
+        <v>0.7730815465129666</v>
+      </c>
+      <c r="G79">
+        <v>-0.3964430462063575</v>
+      </c>
+      <c r="H79">
+        <v>-0.3184054226280246</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.004976283139602941</v>
+        <v>0.005367833909382847</v>
       </c>
       <c r="C80">
-        <v>-0.04664964352010274</v>
+        <v>0.04658819449047599</v>
       </c>
       <c r="D80">
-        <v>0.04897216097362214</v>
+        <v>-0.03997148457534493</v>
       </c>
       <c r="E80">
-        <v>0.007186356905162943</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.04284612142016276</v>
+      </c>
+      <c r="F80">
+        <v>0.005360354740149565</v>
+      </c>
+      <c r="G80">
+        <v>0.01591164158577226</v>
+      </c>
+      <c r="H80">
+        <v>0.02754541201319708</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1191245345552668</v>
+        <v>0.04385026357053112</v>
       </c>
       <c r="C81">
-        <v>-0.1351071293119388</v>
+        <v>0.1682523322884075</v>
       </c>
       <c r="D81">
-        <v>-0.06976244383125682</v>
+        <v>0.07618468957415672</v>
       </c>
       <c r="E81">
-        <v>-0.05995022172959523</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.04985126712429979</v>
+      </c>
+      <c r="F81">
+        <v>0.06464796598349722</v>
+      </c>
+      <c r="G81">
+        <v>0.04229481378797806</v>
+      </c>
+      <c r="H81">
+        <v>0.08208209661978465</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2510593778121246</v>
+        <v>0.09126160640657689</v>
       </c>
       <c r="C82">
-        <v>-0.2985245545174439</v>
+        <v>0.3238791476608034</v>
       </c>
       <c r="D82">
-        <v>-0.1964773639533257</v>
+        <v>0.2350927653258083</v>
       </c>
       <c r="E82">
-        <v>0.1415877625873255</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.05722894188140144</v>
+      </c>
+      <c r="F82">
+        <v>-0.1053101190831298</v>
+      </c>
+      <c r="G82">
+        <v>0.09071027278279259</v>
+      </c>
+      <c r="H82">
+        <v>0.1171343588768717</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.007422915151035861</v>
+        <v>-0.01318598590856467</v>
       </c>
       <c r="C83">
-        <v>-0.0508888103472275</v>
+        <v>0.02501798233258459</v>
       </c>
       <c r="D83">
-        <v>-0.000211287133117183</v>
+        <v>-0.0267409226086421</v>
       </c>
       <c r="E83">
-        <v>-0.06152005041667959</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.07961237046684787</v>
+      </c>
+      <c r="F83">
+        <v>0.07131665824414474</v>
+      </c>
+      <c r="G83">
+        <v>0.03594795617920272</v>
+      </c>
+      <c r="H83">
+        <v>0.09307182947186783</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.001551223725841794</v>
+        <v>-0.0003443219007645533</v>
       </c>
       <c r="C84">
-        <v>0.000291135348532707</v>
+        <v>0.01913302826496437</v>
       </c>
       <c r="D84">
-        <v>0.008222564429889037</v>
+        <v>-0.04780853692988742</v>
       </c>
       <c r="E84">
-        <v>0.002396050910962432</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.003531601208564788</v>
+      </c>
+      <c r="F84">
+        <v>0.02803702273219654</v>
+      </c>
+      <c r="G84">
+        <v>0.04968983330891581</v>
+      </c>
+      <c r="H84">
+        <v>0.01454571015975606</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1411654787748924</v>
+        <v>0.05845620653597639</v>
       </c>
       <c r="C85">
-        <v>-0.1389544189677591</v>
+        <v>0.1836010947941637</v>
       </c>
       <c r="D85">
-        <v>-0.03832315634930907</v>
+        <v>0.09047610650804125</v>
       </c>
       <c r="E85">
-        <v>-0.02394545242317157</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.001806243802343377</v>
+      </c>
+      <c r="F85">
+        <v>0.0750441728257201</v>
+      </c>
+      <c r="G85">
+        <v>0.01920770743174422</v>
+      </c>
+      <c r="H85">
+        <v>0.00194522896617976</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01293406455880792</v>
+        <v>0.01374754334782926</v>
       </c>
       <c r="C86">
-        <v>-0.01491947626909955</v>
+        <v>0.03244846750768799</v>
       </c>
       <c r="D86">
-        <v>0.0820583328155408</v>
+        <v>-0.102199632852692</v>
       </c>
       <c r="E86">
-        <v>-0.05327294686116249</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.02042912472585151</v>
+      </c>
+      <c r="F86">
+        <v>-0.0007953030478615095</v>
+      </c>
+      <c r="G86">
+        <v>-0.01744502203005525</v>
+      </c>
+      <c r="H86">
+        <v>0.02506368663582682</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.01897531210187535</v>
+        <v>0.01198006890964081</v>
       </c>
       <c r="C87">
-        <v>-0.02449162897391646</v>
+        <v>0.05758415421393967</v>
       </c>
       <c r="D87">
-        <v>0.1341391298184822</v>
+        <v>-0.1447514806388066</v>
       </c>
       <c r="E87">
-        <v>-0.05717488868057781</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.01348552275409334</v>
+      </c>
+      <c r="F87">
+        <v>0.04239208185722805</v>
+      </c>
+      <c r="G87">
+        <v>0.05392321733405835</v>
+      </c>
+      <c r="H87">
+        <v>0.03178380925034794</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05288738203640493</v>
+        <v>0.03472394937656687</v>
       </c>
       <c r="C88">
-        <v>-0.04481563196973611</v>
+        <v>0.06664459700185524</v>
       </c>
       <c r="D88">
-        <v>0.02641826801209731</v>
+        <v>-0.01206559298967566</v>
       </c>
       <c r="E88">
-        <v>-0.03056638779780114</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.02680800843343085</v>
+      </c>
+      <c r="F88">
+        <v>0.01890770019213756</v>
+      </c>
+      <c r="G88">
+        <v>-0.01155710274650331</v>
+      </c>
+      <c r="H88">
+        <v>0.01750321704620962</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.3234265663695846</v>
+        <v>0.4067126708181021</v>
       </c>
       <c r="C89">
-        <v>0.3281249328440853</v>
+        <v>-0.1560705314459676</v>
       </c>
       <c r="D89">
-        <v>0.009715523005498999</v>
+        <v>-0.0285923961565802</v>
       </c>
       <c r="E89">
-        <v>-0.1061482063117717</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.05433558604833316</v>
+      </c>
+      <c r="F89">
+        <v>0.07086600852701903</v>
+      </c>
+      <c r="G89">
+        <v>0.04434936583775487</v>
+      </c>
+      <c r="H89">
+        <v>0.09883278941868172</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2549182331827531</v>
+        <v>0.3189751724272905</v>
       </c>
       <c r="C90">
-        <v>0.2385579574819453</v>
+        <v>-0.1040854009316719</v>
       </c>
       <c r="D90">
-        <v>0.04202654777839541</v>
+        <v>-0.03609747283142093</v>
       </c>
       <c r="E90">
-        <v>0.008009965034155041</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01062174072875601</v>
+      </c>
+      <c r="F90">
+        <v>-0.007915244728463951</v>
+      </c>
+      <c r="G90">
+        <v>0.05711406994520629</v>
+      </c>
+      <c r="H90">
+        <v>0.00159798040734437</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1549828910467105</v>
+        <v>0.0682189474608608</v>
       </c>
       <c r="C91">
-        <v>-0.1877280598035628</v>
+        <v>0.2091618549738586</v>
       </c>
       <c r="D91">
-        <v>-0.0953403563661837</v>
+        <v>0.1085071320114127</v>
       </c>
       <c r="E91">
-        <v>-0.08989897595253794</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.05945808834319954</v>
+      </c>
+      <c r="F91">
+        <v>0.07295832839541855</v>
+      </c>
+      <c r="G91">
+        <v>0.002862035052267546</v>
+      </c>
+      <c r="H91">
+        <v>0.005147432422420158</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2412382348934636</v>
+        <v>0.3376582937893327</v>
       </c>
       <c r="C92">
-        <v>0.2605774559590178</v>
+        <v>-0.1424308145398257</v>
       </c>
       <c r="D92">
-        <v>-0.05383757908598448</v>
+        <v>-0.001656092395918975</v>
       </c>
       <c r="E92">
-        <v>-0.04760777440595931</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.06498692952125759</v>
+      </c>
+      <c r="F92">
+        <v>0.02947289252447749</v>
+      </c>
+      <c r="G92">
+        <v>0.02876658860410378</v>
+      </c>
+      <c r="H92">
+        <v>0.01705363031474619</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2797729027367658</v>
+        <v>0.3350331027218096</v>
       </c>
       <c r="C93">
-        <v>0.2504631247262483</v>
+        <v>-0.1164283867411265</v>
       </c>
       <c r="D93">
-        <v>0.015897946628695</v>
+        <v>0.01903503663701087</v>
       </c>
       <c r="E93">
-        <v>-0.0006784620691335867</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.02482397838516423</v>
+      </c>
+      <c r="F93">
+        <v>0.008705275264687704</v>
+      </c>
+      <c r="G93">
+        <v>-0.01897809827153476</v>
+      </c>
+      <c r="H93">
+        <v>-0.001995873597259285</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2954857528009688</v>
+        <v>0.1280870215945396</v>
       </c>
       <c r="C94">
-        <v>-0.274172945980792</v>
+        <v>0.3521241279349845</v>
       </c>
       <c r="D94">
-        <v>-0.3487671820137027</v>
+        <v>0.3617847479101683</v>
       </c>
       <c r="E94">
-        <v>0.2192852182121248</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.06533448294963858</v>
+      </c>
+      <c r="F94">
+        <v>-0.1066979282754288</v>
+      </c>
+      <c r="G94">
+        <v>0.3253864124606204</v>
+      </c>
+      <c r="H94">
+        <v>-0.05379386055475468</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.01504808351726987</v>
+        <v>0.01870105218107485</v>
       </c>
       <c r="C95">
-        <v>-0.03727792735177132</v>
+        <v>0.06373280937162333</v>
       </c>
       <c r="D95">
-        <v>0.01643526179227067</v>
+        <v>-0.1117736177540643</v>
       </c>
       <c r="E95">
-        <v>-0.1003760268862876</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.1547287679757133</v>
+      </c>
+      <c r="F95">
+        <v>-0.01473755103745447</v>
+      </c>
+      <c r="G95">
+        <v>-0.07710150128898655</v>
+      </c>
+      <c r="H95">
+        <v>0.3453641879932735</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3190,71 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.00135944085114125</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0004490835305536452</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.0005481319862975398</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.003363970037728227</v>
+      </c>
+      <c r="F97">
+        <v>0.0001577702559158609</v>
+      </c>
+      <c r="G97">
+        <v>0.0001753014101391175</v>
+      </c>
+      <c r="H97">
+        <v>0.003166073430120774</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1437757837278379</v>
+        <v>0.1148249896713253</v>
       </c>
       <c r="C98">
-        <v>-0.08687114137531214</v>
+        <v>0.150416400122132</v>
       </c>
       <c r="D98">
-        <v>0.1586638161458298</v>
+        <v>-0.06474194784063153</v>
       </c>
       <c r="E98">
-        <v>0.1981039889534748</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.2034217401250098</v>
+      </c>
+      <c r="F98">
+        <v>-0.2462693664324498</v>
+      </c>
+      <c r="G98">
+        <v>-0.2808879933005696</v>
+      </c>
+      <c r="H98">
+        <v>-0.1747101236455083</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3268,19 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3294,71 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.0008141128141311476</v>
+        <v>0.00116066007567555</v>
       </c>
       <c r="C101">
-        <v>-0.01994013019519034</v>
+        <v>0.0352299235501181</v>
       </c>
       <c r="D101">
-        <v>0.09459909820367697</v>
+        <v>-0.1034212973674442</v>
       </c>
       <c r="E101">
-        <v>-0.01956050935855798</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.05703999597809634</v>
+      </c>
+      <c r="F101">
+        <v>0.04141189306474591</v>
+      </c>
+      <c r="G101">
+        <v>-0.002550775312132642</v>
+      </c>
+      <c r="H101">
+        <v>0.132390715128706</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1057957767453397</v>
+        <v>0.02885452941350099</v>
       </c>
       <c r="C102">
-        <v>-0.1584475014270872</v>
+        <v>0.1501183891720214</v>
       </c>
       <c r="D102">
-        <v>-0.06218634936820064</v>
+        <v>0.09583293480535027</v>
       </c>
       <c r="E102">
-        <v>0.0503663347535909</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03541951281562879</v>
+      </c>
+      <c r="F102">
+        <v>-0.06306604193383125</v>
+      </c>
+      <c r="G102">
+        <v>-0.008108660740961319</v>
+      </c>
+      <c r="H102">
+        <v>0.0518765474065646</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3372,19 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3396,15 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
